--- a/va_facility_data_2025-02-20/Baltimore VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Baltimore%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Baltimore VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Baltimore%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rc52b11aef72a4a94a94296450da38b84"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R5f995dd19c9643019a2e1fab49bac0d7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb3489eb91a8944898e45c3d5a19202c6"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R759bc99ccedd4b4dbdcddb8c7e70f2f8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra525f2f602bb442aa547feb0ca492d0e"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9dc96344626c42258465bcfd3f3d9f05"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R1ba1f2e4a8924b94b038006d9c8fcd2c"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Ra3bdfa23642d46d0bd8e9bc2b033cb56"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd19fb852049b452d8f2897902268a290"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R5f772615192f4b01b44470f05acedba3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9a5567f76e0641329492be0469cd1b4d"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R065e3bbca7fd49faa09339d261ee7499"/>
   </x:sheets>
 </x:workbook>
 </file>
